--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23829\Desktop\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81DFF8-B4CA-45BE-8B4B-E1DC73AB6231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D64E07-702F-4DCF-A65C-8DC9937F372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1584" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>交通运输工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,30 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>交通运输工程</t>
   </si>
   <si>
-    <t>2023年11月16日</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>2023年11月22日</t>
-  </si>
-  <si>
     <t>2023年11月14日</t>
   </si>
   <si>
     <t>114514</t>
   </si>
   <si>
-    <t>2023年11月06日</t>
-  </si>
-  <si>
     <t>1919810</t>
   </si>
   <si>
@@ -94,34 +79,37 @@
     <t>和</t>
   </si>
   <si>
-    <t>刘准</t>
-  </si>
-  <si>
-    <t>2023年11月220日</t>
-  </si>
-  <si>
-    <t>2023年11月06日1</t>
-  </si>
-  <si>
-    <t>2023年11月06日123</t>
-  </si>
-  <si>
-    <t>2023年11月06日在</t>
-  </si>
-  <si>
-    <t>2024年06月23日</t>
-  </si>
-  <si>
-    <t>2024年06月23日1</t>
-  </si>
-  <si>
-    <t>2023年11月12日</t>
-  </si>
-  <si>
-    <t>2019年06月23日</t>
-  </si>
-  <si>
     <t>1223年11月12日</t>
+  </si>
+  <si>
+    <t>示例班级</t>
+  </si>
+  <si>
+    <t>2020年10月02日</t>
+  </si>
+  <si>
+    <t>大飒飒</t>
+  </si>
+  <si>
+    <t>大飒飒大</t>
+  </si>
+  <si>
+    <t>11451412223</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>自行车2</t>
+  </si>
+  <si>
+    <t>2023年11月01日</t>
+  </si>
+  <si>
+    <t>电气工程</t>
+  </si>
+  <si>
+    <t>2023年11月02日</t>
   </si>
 </sst>
 </file>
@@ -491,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,102 +494,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23829\Desktop\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81DFF8-B4CA-45BE-8B4B-E1DC73AB6231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D64E07-702F-4DCF-A65C-8DC9937F372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1584" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>交通运输工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,30 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>交通运输工程</t>
   </si>
   <si>
-    <t>2023年11月16日</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>2023年11月22日</t>
-  </si>
-  <si>
     <t>2023年11月14日</t>
   </si>
   <si>
     <t>114514</t>
   </si>
   <si>
-    <t>2023年11月06日</t>
-  </si>
-  <si>
     <t>1919810</t>
   </si>
   <si>
@@ -92,33 +77,6 @@
   </si>
   <si>
     <t>和</t>
-  </si>
-  <si>
-    <t>刘准</t>
-  </si>
-  <si>
-    <t>2023年11月220日</t>
-  </si>
-  <si>
-    <t>2023年11月06日1</t>
-  </si>
-  <si>
-    <t>2023年11月06日123</t>
-  </si>
-  <si>
-    <t>2023年11月06日在</t>
-  </si>
-  <si>
-    <t>2024年06月23日</t>
-  </si>
-  <si>
-    <t>2024年06月23日1</t>
-  </si>
-  <si>
-    <t>2023年11月12日</t>
-  </si>
-  <si>
-    <t>2019年06月23日</t>
   </si>
   <si>
     <t>1223年11月12日</t>
@@ -491,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -518,90 +476,189 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
